--- a/SuppXLS/Scen_RES_SHARE_50%_24_7.xlsx
+++ b/SuppXLS/Scen_RES_SHARE_50%_24_7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\MSc_SELECT_FULL\SuppXLS\Policy_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Paponson\_MSC_SET\_Energy Policy_UPC\FINAL Project\USED_Policy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2FAE5B-B617-4B04-848A-288BA6E5BD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705B51C2-7C69-4F95-B40B-D152048D63BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INS_1" sheetId="11" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="20">
   <si>
     <t>Year</t>
   </si>
@@ -94,7 +94,28 @@
     <t>FLO_SHAR</t>
   </si>
   <si>
-    <t>ANNUAL</t>
+    <t>WIN_DAY</t>
+  </si>
+  <si>
+    <t>WIN_NITE</t>
+  </si>
+  <si>
+    <t>SPR_DAY</t>
+  </si>
+  <si>
+    <t>SPR_NITE</t>
+  </si>
+  <si>
+    <t>SUM_DAY</t>
+  </si>
+  <si>
+    <t>SUM_NITE</t>
+  </si>
+  <si>
+    <t>AUT_DAY</t>
+  </si>
+  <si>
+    <t>AUT_NITE</t>
   </si>
 </sst>
 </file>
@@ -102,12 +123,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="20">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0\ _z_ł_-;\-* #,##0\ _z_ł_-;_-* &quot;-&quot;\ _z_ł_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0\ _z_ł_-;\-* #,##0\ _z_ł_-;_-* &quot;-&quot;\ _z_ł_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _D_M_-;\-* #,##0.00\ _D_M_-;_-* &quot;-&quot;??\ _D_M_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
@@ -1510,7 +1531,7 @@
     <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1973,8 +1994,8 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1997,9 +2018,9 @@
     <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="170" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="170" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="170" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="73" fillId="0" borderId="0">
@@ -2209,7 +2230,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="40" fontId="69" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2275,7 +2296,7 @@
     <xf numFmtId="0" fontId="60" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="60" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="37" fontId="80" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -2671,7 +2692,7 @@
     <xf numFmtId="17" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2799,7 +2820,7 @@
     <xf numFmtId="0" fontId="48" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="172" fontId="69" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2820,9 +2841,9 @@
     <xf numFmtId="4" fontId="67" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="98" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
@@ -2841,7 +2862,7 @@
     <xf numFmtId="0" fontId="102" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="103" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="105" fillId="41" borderId="18" xfId="1281" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2850,12 +2871,7 @@
     <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="1281" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="19" xfId="1280" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1280" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1282">
     <cellStyle name="20 % - Akzent1 2" xfId="338" xr:uid="{F45CA455-86B7-48DC-AA00-C66E9CC6D9BA}"/>
@@ -4441,21 +4457,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:I6"/>
+  <dimension ref="B1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
     <col min="5" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9">
@@ -4467,7 +4483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15.75" thickBot="1">
+    <row r="5" spans="2:9">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -4491,25 +4507,1106 @@
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="2">
-        <v>2030</v>
+      <c r="F6" s="4">
+        <v>2025</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2025</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2025</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2025</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2025</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2025</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2025</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2025</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2030</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2030</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2030</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2030</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2030</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2030</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2030</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2030</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2035</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2035</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2035</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2035</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2035</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2035</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2035</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2035</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2040</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2040</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2040</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2040</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2040</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2040</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2040</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2040</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2045</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2045</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2045</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="4">
+        <v>2045</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="4">
+        <v>2045</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="4">
+        <v>2045</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="4">
+        <v>2045</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="4">
+        <v>2045</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="4">
+        <v>2050</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="4">
+        <v>2050</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="4">
+        <v>2050</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="4">
+        <v>2050</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="4">
+        <v>2050</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="4">
+        <v>2050</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="4">
+        <v>2050</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="4">
+        <v>2050</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="4">
         <v>0.5</v>
       </c>
     </row>
